--- a/ADVANCE.xlsx
+++ b/ADVANCE.xlsx
@@ -35,9 +35,6 @@
     <t>SINOJOINT POLY ENTERPRISE CO LTD.</t>
   </si>
   <si>
-    <t>HONGKONG,CHINA</t>
-  </si>
-  <si>
     <t>JANUARY</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>EC100GT4906</t>
   </si>
   <si>
-    <t>DUBAI, UAE</t>
-  </si>
-  <si>
     <t>ITALY</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>MOHAMMED ENTERPRISES LIMITED</t>
   </si>
   <si>
-    <t>HAMBURG, GERMANY</t>
-  </si>
-  <si>
     <t>P.L. SUPERIOR DENTAL MATERIALS GMBH</t>
   </si>
   <si>
@@ -119,18 +110,12 @@
     <t>BUSINESS POINT GENERAL TRADING FZE</t>
   </si>
   <si>
-    <t>RAS ALKHAIMA, UAE</t>
-  </si>
-  <si>
     <t>RABBIT CONTROL SYSTEM</t>
   </si>
   <si>
     <t>SOFOMATION FZ LLC</t>
   </si>
   <si>
-    <t>ANHUI, CHINA</t>
-  </si>
-  <si>
     <t>ZOOMLION ANHUI INDUSTRIAL VEHICLE CO LTD</t>
   </si>
   <si>
@@ -195,6 +180,21 @@
   </si>
   <si>
     <t>EURO</t>
+  </si>
+  <si>
+    <t>HONGKONG-CHINA</t>
+  </si>
+  <si>
+    <t>RAS ALKHAIMA- UAE</t>
+  </si>
+  <si>
+    <t>DUBAI- UAE</t>
+  </si>
+  <si>
+    <t>HAMBURG- GERMANY</t>
+  </si>
+  <si>
+    <t>ANHUI- CHINA</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,48 +580,48 @@
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -651,19 +651,19 @@
         <v>511380</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>84000</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>6000</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -769,19 +769,19 @@
         <v>120000</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="O5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -811,19 +811,19 @@
         <v>1515.28</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -853,19 +853,19 @@
         <v>148756.5</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -895,19 +895,19 @@
         <v>4222.1400000000003</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -937,19 +937,19 @@
         <v>5000</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -979,19 +979,19 @@
         <v>360246.83</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1021,19 +1021,19 @@
         <v>125309.4</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1063,19 +1063,19 @@
         <v>49915.65</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1105,19 +1105,19 @@
         <v>58370</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1147,18 +1147,18 @@
         <v>6838</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1188,18 +1188,18 @@
         <v>156404</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1229,13 +1229,13 @@
         <v>39798.81</v>
       </c>
       <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
         <v>56</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">

--- a/ADVANCE.xlsx
+++ b/ADVANCE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Abacus\Transaction\Abacas-transaaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\Abacas-transaaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,6 +201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,13 +233,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +565,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +578,7 @@
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -603,7 +610,7 @@
       <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J1" t="s">
@@ -644,7 +651,7 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>43506</v>
       </c>
       <c r="J2">
@@ -686,7 +693,7 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>43523</v>
       </c>
       <c r="J3">
@@ -724,7 +731,7 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>43523</v>
       </c>
       <c r="J4">
@@ -762,7 +769,7 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>43524</v>
       </c>
       <c r="J5">
@@ -804,7 +811,7 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>43520</v>
       </c>
       <c r="J6">
@@ -846,7 +853,7 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>43501</v>
       </c>
       <c r="J7">
@@ -888,7 +895,7 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>43503</v>
       </c>
       <c r="J8">
@@ -930,7 +937,7 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>43510</v>
       </c>
       <c r="J9">
@@ -972,7 +979,7 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>43523</v>
       </c>
       <c r="J10">
@@ -1014,7 +1021,7 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>43507</v>
       </c>
       <c r="J11">
@@ -1056,7 +1063,7 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>43500</v>
       </c>
       <c r="J12">
@@ -1098,7 +1105,7 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>43524</v>
       </c>
       <c r="J13">
@@ -1140,7 +1147,7 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>43510</v>
       </c>
       <c r="J14">
@@ -1181,7 +1188,7 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>43515</v>
       </c>
       <c r="J15">
@@ -1222,7 +1229,7 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>43515</v>
       </c>
       <c r="J16">
@@ -1262,7 +1269,7 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21"/>
@@ -1270,7 +1277,7 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -1278,7 +1285,7 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="H22"/>
-      <c r="I22"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23"/>
@@ -1286,7 +1293,7 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24"/>
@@ -1294,7 +1301,7 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="H24"/>
-      <c r="I24"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25"/>
@@ -1302,7 +1309,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="H25"/>
-      <c r="I25"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26"/>
@@ -1310,7 +1317,7 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="H26"/>
-      <c r="I26"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27"/>
@@ -1318,7 +1325,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -1326,31 +1333,31 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H31"/>
-      <c r="I31"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H32"/>
-      <c r="I32"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H33"/>
-      <c r="I33"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H34"/>
-      <c r="I34"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>

--- a/ADVANCE.xlsx
+++ b/ADVANCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>EXCELLENT CITY GENERAL TRADING LLC</t>
   </si>
@@ -182,19 +182,49 @@
     <t>EURO</t>
   </si>
   <si>
-    <t>HONGKONG-CHINA</t>
-  </si>
-  <si>
-    <t>RAS ALKHAIMA- UAE</t>
-  </si>
-  <si>
-    <t>DUBAI- UAE</t>
-  </si>
-  <si>
-    <t>HAMBURG- GERMANY</t>
-  </si>
-  <si>
-    <t>ANHUI- CHINA</t>
+    <t>HONGKONG,CHINA</t>
+  </si>
+  <si>
+    <t>10,02,2019</t>
+  </si>
+  <si>
+    <t>RAS ALKHAIMA, UAE</t>
+  </si>
+  <si>
+    <t>27,02,2019</t>
+  </si>
+  <si>
+    <t>28,02,2019</t>
+  </si>
+  <si>
+    <t>DUBAI, UAE</t>
+  </si>
+  <si>
+    <t>24,02,2019</t>
+  </si>
+  <si>
+    <t>05,02,2019</t>
+  </si>
+  <si>
+    <t>07,02,2019</t>
+  </si>
+  <si>
+    <t>14,02,2019</t>
+  </si>
+  <si>
+    <t>11,02,2019</t>
+  </si>
+  <si>
+    <t>04,02,2019</t>
+  </si>
+  <si>
+    <t>HAMBURG, GERMANY</t>
+  </si>
+  <si>
+    <t>19,02,2019</t>
+  </si>
+  <si>
+    <t>ANHUI, CHINA</t>
   </si>
 </sst>
 </file>
@@ -565,7 +595,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +681,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>43506</v>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J2">
         <v>511380</v>
@@ -664,7 +694,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2"/>
     </row>
@@ -693,8 +723,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <v>43523</v>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J3">
         <v>84000</v>
@@ -731,8 +761,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
-        <v>43523</v>
+      <c r="I4" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J4">
         <v>6000</v>
@@ -769,8 +799,8 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>43524</v>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J5">
         <v>120000</v>
@@ -782,7 +812,7 @@
         <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O5"/>
     </row>
@@ -811,8 +841,8 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>43520</v>
+      <c r="I6" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J6">
         <v>1515.28</v>
@@ -853,8 +883,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
-        <v>43501</v>
+      <c r="I7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="J7">
         <v>148756.5</v>
@@ -866,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O7"/>
     </row>
@@ -895,8 +925,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
-        <v>43503</v>
+      <c r="I8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J8">
         <v>4222.1400000000003</v>
@@ -937,8 +967,8 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
-        <v>43510</v>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J9">
         <v>5000</v>
@@ -979,8 +1009,8 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
-        <v>43523</v>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J10">
         <v>360246.83</v>
@@ -992,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O10"/>
     </row>
@@ -1021,8 +1051,8 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
-        <v>43507</v>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="J11">
         <v>125309.4</v>
@@ -1063,8 +1093,8 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>43500</v>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="J12">
         <v>49915.65</v>
@@ -1076,7 +1106,7 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O12"/>
     </row>
@@ -1105,8 +1135,8 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
-        <v>43524</v>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="J13">
         <v>58370</v>
@@ -1147,8 +1177,8 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
-        <v>43510</v>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J14">
         <v>6838</v>
@@ -1160,7 +1190,7 @@
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1188,8 +1218,8 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
-        <v>43515</v>
+      <c r="I15" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="J15">
         <v>156404</v>
@@ -1201,7 +1231,7 @@
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1229,8 +1259,8 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
-        <v>43515</v>
+      <c r="I16" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="J16">
         <v>39798.81</v>
@@ -1242,7 +1272,7 @@
         <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
